--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -67,9 +67,6 @@
     <t>BrowserPath</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\Mozilla Firefox\firefox.exe</t>
-  </si>
-  <si>
     <t>internet explorer 11</t>
   </si>
   <si>
@@ -79,10 +76,13 @@
     <t>Chrome 59.0</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\Google\Chrome\Application\chrome.exe</t>
-  </si>
-  <si>
     <t>BrowserVersion</t>
+  </si>
+  <si>
+    <t>C:\Users\suvarna.doodala\AppData\Local\Google\Chrome\Application\chrome.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\suvarna.doodala\AppData\Local\Mozilla Firefox\firefox.exe</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,13 +577,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
